--- a/rrhh_14/hr_campos_parametrizacion/data/hr.payroll.hollydays.xlsx
+++ b/rrhh_14/hr_campos_parametrizacion/data/hr.payroll.hollydays.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Dias</t>
   </si>
@@ -31,10 +31,10 @@
     <t>Año Nuevo</t>
   </si>
   <si>
-    <t>Carnavales</t>
-  </si>
-  <si>
-    <t>Semana Santa</t>
+    <t>Lunes Carnaval</t>
+  </si>
+  <si>
+    <t>Jueves Semana Santa</t>
   </si>
   <si>
     <t>Declaración de la Independencia</t>
@@ -62,6 +62,21 @@
   </si>
   <si>
     <t>Fiesta de Fin de Año</t>
+  </si>
+  <si>
+    <t>Dia de Reyes</t>
+  </si>
+  <si>
+    <t>Martes Carnaval</t>
+  </si>
+  <si>
+    <t>Viernes  Semana Santa</t>
+  </si>
+  <si>
+    <t>DIA DE ARAURE</t>
+  </si>
+  <si>
+    <t>Dia de acarigua</t>
   </si>
 </sst>
 </file>
@@ -411,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,10 +457,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="3">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="D2" s="3">
-        <v>44197</v>
+        <v>44562</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -456,10 +471,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>44242</v>
+        <v>44620</v>
       </c>
       <c r="D3" s="3">
-        <v>44243</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -470,10 +485,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="3">
-        <v>44287</v>
+        <v>44665</v>
       </c>
       <c r="D4" s="3">
-        <v>44288</v>
+        <v>44665</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -484,10 +499,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="3">
-        <v>44305</v>
+        <v>44670</v>
       </c>
       <c r="D5" s="3">
-        <v>44305</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -498,10 +513,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>44317</v>
+        <v>44682</v>
       </c>
       <c r="D6" s="3">
-        <v>44317</v>
+        <v>44682</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -512,10 +527,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>44371</v>
+        <v>44736</v>
       </c>
       <c r="D7" s="3">
-        <v>44371</v>
+        <v>44736</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -526,10 +541,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="3">
-        <v>44382</v>
+        <v>44747</v>
       </c>
       <c r="D8" s="3">
-        <v>44382</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -540,10 +555,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="3">
-        <v>44401</v>
+        <v>44766</v>
       </c>
       <c r="D9" s="3">
-        <v>44401</v>
+        <v>44766</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -554,24 +569,24 @@
         <v>12</v>
       </c>
       <c r="C10" s="3">
-        <v>44481</v>
+        <v>44846</v>
       </c>
       <c r="D10" s="3">
-        <v>44481</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="3">
-        <v>44554</v>
+        <v>44919</v>
       </c>
       <c r="D11" s="3">
-        <v>44554</v>
+        <v>44919</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -582,10 +597,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="3">
-        <v>44555</v>
+        <v>44920</v>
       </c>
       <c r="D12" s="3">
-        <v>44555</v>
+        <v>44920</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -596,10 +611,80 @@
         <v>15</v>
       </c>
       <c r="C13" s="3">
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="D13" s="3">
-        <v>44561</v>
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44567</v>
+      </c>
+      <c r="D14" s="3">
+        <v>44567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44621</v>
+      </c>
+      <c r="D15" s="3">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44666</v>
+      </c>
+      <c r="D16" s="3">
+        <v>44666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44748</v>
+      </c>
+      <c r="D17" s="3">
+        <v>44748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44833</v>
+      </c>
+      <c r="D18" s="3">
+        <v>44833</v>
       </c>
     </row>
   </sheetData>

--- a/rrhh_14/hr_campos_parametrizacion/data/hr.payroll.hollydays.xlsx
+++ b/rrhh_14/hr_campos_parametrizacion/data/hr.payroll.hollydays.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Dias</t>
   </si>
@@ -31,10 +31,10 @@
     <t>Año Nuevo</t>
   </si>
   <si>
-    <t>Lunes Carnaval</t>
-  </si>
-  <si>
-    <t>Jueves Semana Santa</t>
+    <t>Carnavales</t>
+  </si>
+  <si>
+    <t>Semana Santa</t>
   </si>
   <si>
     <t>Declaración de la Independencia</t>
@@ -62,21 +62,6 @@
   </si>
   <si>
     <t>Fiesta de Fin de Año</t>
-  </si>
-  <si>
-    <t>Dia de Reyes</t>
-  </si>
-  <si>
-    <t>Martes Carnaval</t>
-  </si>
-  <si>
-    <t>Viernes  Semana Santa</t>
-  </si>
-  <si>
-    <t>DIA DE ARAURE</t>
-  </si>
-  <si>
-    <t>Dia de acarigua</t>
   </si>
 </sst>
 </file>
@@ -426,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,10 +442,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="3">
-        <v>44562</v>
+        <v>44197</v>
       </c>
       <c r="D2" s="3">
-        <v>44562</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -471,10 +456,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>44620</v>
+        <v>44242</v>
       </c>
       <c r="D3" s="3">
-        <v>44620</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -485,10 +470,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="3">
-        <v>44665</v>
+        <v>44287</v>
       </c>
       <c r="D4" s="3">
-        <v>44665</v>
+        <v>44288</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -499,10 +484,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="3">
-        <v>44670</v>
+        <v>44305</v>
       </c>
       <c r="D5" s="3">
-        <v>44670</v>
+        <v>44305</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -513,10 +498,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>44682</v>
+        <v>44317</v>
       </c>
       <c r="D6" s="3">
-        <v>44682</v>
+        <v>44317</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -527,10 +512,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>44736</v>
+        <v>44371</v>
       </c>
       <c r="D7" s="3">
-        <v>44736</v>
+        <v>44371</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -541,10 +526,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="3">
-        <v>44747</v>
+        <v>44382</v>
       </c>
       <c r="D8" s="3">
-        <v>44747</v>
+        <v>44382</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -555,10 +540,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="3">
-        <v>44766</v>
+        <v>44401</v>
       </c>
       <c r="D9" s="3">
-        <v>44766</v>
+        <v>44401</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -569,24 +554,24 @@
         <v>12</v>
       </c>
       <c r="C10" s="3">
-        <v>44846</v>
+        <v>44481</v>
       </c>
       <c r="D10" s="3">
-        <v>44846</v>
+        <v>44481</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="3">
-        <v>44919</v>
+        <v>44554</v>
       </c>
       <c r="D11" s="3">
-        <v>44919</v>
+        <v>44554</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -597,10 +582,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="3">
-        <v>44920</v>
+        <v>44555</v>
       </c>
       <c r="D12" s="3">
-        <v>44920</v>
+        <v>44555</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -611,80 +596,10 @@
         <v>15</v>
       </c>
       <c r="C13" s="3">
-        <v>44926</v>
+        <v>44561</v>
       </c>
       <c r="D13" s="3">
-        <v>44926</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3">
-        <v>44567</v>
-      </c>
-      <c r="D14" s="3">
-        <v>44567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3">
-        <v>44621</v>
-      </c>
-      <c r="D15" s="3">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3">
-        <v>44666</v>
-      </c>
-      <c r="D16" s="3">
-        <v>44666</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3">
-        <v>44748</v>
-      </c>
-      <c r="D17" s="3">
-        <v>44748</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3">
-        <v>44833</v>
-      </c>
-      <c r="D18" s="3">
-        <v>44833</v>
+        <v>44561</v>
       </c>
     </row>
   </sheetData>
